--- a/biology/Biologie cellulaire et moléculaire/Elabela/Elabela.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Elabela/Elabela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ELABELA (ELA, Apela, Toddler) est un peptide hormonal qui chez l'homme est codé par le gène APELA. Elabela est l'un des deux ligands endogènes du récepteur APLNR, une GPCR[1]. Ela est sécrétée par certains types cellulaires, notamment les cellules souches embryonnaires humaines[2]. Il est exprimé dans divers organes au cours du développement tels que le blastocyste[3], placenta[4], cœur[5], reins[6], endothélium, et circule dans le plasma humain en tant qu' hormone.
+ELABELA (ELA, Apela, Toddler) est un peptide hormonal qui chez l'homme est codé par le gène APELA. Elabela est l'un des deux ligands endogènes du récepteur APLNR, une GPCR. Ela est sécrétée par certains types cellulaires, notamment les cellules souches embryonnaires humaines. Il est exprimé dans divers organes au cours du développement tels que le blastocyste, placenta, cœur, reins, endothélium, et circule dans le plasma humain en tant qu' hormone.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elabela est un micropeptide qui a été identifié en 2013 par l'équipe de Bruno Reversade[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elabela est un micropeptide qui a été identifié en 2013 par l'équipe de Bruno Reversade.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Biosynthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène Elabela code une pré-proprotéine de 54 acides aminés, avec un peptide signal dans la région N-terminale. Après translocation dans le réticulum endoplasmique et clivage du peptide signal, la proprotéine de 32 acides aminés peut générer plusieurs fragments actifs[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène Elabela code une pré-proprotéine de 54 acides aminés, avec un peptide signal dans la région N-terminale. Après translocation dans le réticulum endoplasmique et clivage du peptide signal, la proprotéine de 32 acides aminés peut générer plusieurs fragments actifs.
 </t>
         </is>
       </c>
@@ -574,15 +590,122 @@
           <t>Fonctions physiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sites d' expression du récepteur APLNR sont liés aux différentes fonctions jouées par Elabela dans l'organisme. Malgré cela, Elabela est capable de signaler indépendamment de l'APLNR dans les cellules souches embryonnaires humaines[2] et certaines lignées cellulaires cancéreuses dont OVISE[8].
-Pluripotence embryonnaire
-La protéine Elabela est synthétisée, transformée et sécrétée par des cellules souches embryonnaires[3] mais pas par des cellules souches embryonnaires de souris. Chez l'homme, il est sous la régulation directe de POU5F1 (aka OCT4) et NANOG. Grâce à sa signalisation autocrine et paracrine, Elabela endogène entraîne la voie PI3K/AKT/mTOR pour maintenir la pluripotence et l'auto-renouvellement[2].
-Vasculaire
-Elabela est exprimé par les tissus médians (tels que la notocorde chez le poisson zèbre et le tube neural chez les mammifères) au cours de l'organogenèse. Là, il sert de chimioattractant pour les angioblastes exprimant l' APLNR à leur surface cellulaire[9]. Cela participe à la formation des premiers et secondaires vaisseaux du système vasculaire[10].
-Pré-éclampsie
-L'ELA est sécrétée dans la circulation sanguine par le placenta en développement. Les souris enceintes dépourvues d'Ela[11], présentent des symptômes de type pré-éclampsie , caractérisés par une protéinurie et une hypertension gestationnelle[4]. L'infusion d'ELA exogène normalise la pression artérielle et prévient le retard de croissance intra-utérin chez les souris nés de mères Ela knock-out. L'ELA augmente le pouvoir invasif des cellules de type trophoblaste, ce qui suggère qu'il peut améliorer le développement placentaire pour prévenir l'éclampsie[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites d' expression du récepteur APLNR sont liés aux différentes fonctions jouées par Elabela dans l'organisme. Malgré cela, Elabela est capable de signaler indépendamment de l'APLNR dans les cellules souches embryonnaires humaines et certaines lignées cellulaires cancéreuses dont OVISE.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elabela</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elabela</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions physiologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pluripotence embryonnaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine Elabela est synthétisée, transformée et sécrétée par des cellules souches embryonnaires mais pas par des cellules souches embryonnaires de souris. Chez l'homme, il est sous la régulation directe de POU5F1 (aka OCT4) et NANOG. Grâce à sa signalisation autocrine et paracrine, Elabela endogène entraîne la voie PI3K/AKT/mTOR pour maintenir la pluripotence et l'auto-renouvellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elabela</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elabela</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions physiologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vasculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elabela est exprimé par les tissus médians (tels que la notocorde chez le poisson zèbre et le tube neural chez les mammifères) au cours de l'organogenèse. Là, il sert de chimioattractant pour les angioblastes exprimant l' APLNR à leur surface cellulaire. Cela participe à la formation des premiers et secondaires vaisseaux du système vasculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elabela</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elabela</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fonctions physiologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pré-éclampsie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ELA est sécrétée dans la circulation sanguine par le placenta en développement. Les souris enceintes dépourvues d'Ela, présentent des symptômes de type pré-éclampsie , caractérisés par une protéinurie et une hypertension gestationnelle. L'infusion d'ELA exogène normalise la pression artérielle et prévient le retard de croissance intra-utérin chez les souris nés de mères Ela knock-out. L'ELA augmente le pouvoir invasif des cellules de type trophoblaste, ce qui suggère qu'il peut améliorer le développement placentaire pour prévenir l'éclampsie.
 </t>
         </is>
       </c>
